--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_1_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1382768.012478013</v>
+        <v>1352178.863669883</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809165</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>149.6381402929185</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>313.7818602331885</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -832,7 +832,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0334464412828</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>229.7790204235688</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,13 +896,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>224.3210318038723</v>
       </c>
       <c r="E5" t="n">
-        <v>42.81009494879391</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.1055716303395</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7074041394968</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>149.172354797768</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>121.8235736002277</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,7 +1591,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>194.22415688859</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>98.15366458399265</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>213.1296626221584</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1828,10 +1828,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.283897344659</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>49.12808222222993</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2020,7 +2020,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,10 +2065,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>200.9743993711807</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2242,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.3886970639977</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2305,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.7059116376147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2491,10 +2491,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,16 +2533,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.9291457253093</v>
+        <v>80.86522355397804</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>8.209635605838059</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2889762329932</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2779,7 +2779,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.9929615813391</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1668213893227</v>
+        <v>178.1668213893228</v>
       </c>
       <c r="C34" t="n">
         <v>160.1553498542509</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088748</v>
       </c>
       <c r="E34" t="n">
-        <v>71.68702596634185</v>
+        <v>154.4486361530528</v>
       </c>
       <c r="F34" t="n">
-        <v>160.0456688475629</v>
+        <v>160.045668847563</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.6733949415046</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407629</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3362093704342</v>
+        <v>158.3362093704343</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607367</v>
+        <v>230.8084666607368</v>
       </c>
       <c r="U34" t="n">
-        <v>267.2851163790764</v>
+        <v>242.7411254396505</v>
       </c>
       <c r="V34" t="n">
-        <v>268.7968650824291</v>
+        <v>268.7968650824292</v>
       </c>
       <c r="W34" t="n">
-        <v>262.0063921535898</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530306</v>
+        <v>230.0407699530307</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9818529915331</v>
+        <v>213.9818529915332</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C35" t="n">
-        <v>386.9571213141933</v>
+        <v>386.9571213141932</v>
       </c>
       <c r="D35" t="n">
-        <v>383.3850932342101</v>
+        <v>383.38509323421</v>
       </c>
       <c r="E35" t="n">
         <v>386.0425690809814</v>
@@ -3278,7 +3278,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138063</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H35" t="n">
         <v>259.2150933680659</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295138</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731729</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D37" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105452</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448717</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705897</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T37" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U37" t="n">
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
       </c>
       <c r="X37" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C38" t="n">
-        <v>386.9571213141933</v>
+        <v>386.9571213141932</v>
       </c>
       <c r="D38" t="n">
-        <v>383.3850932342101</v>
+        <v>383.38509323421</v>
       </c>
       <c r="E38" t="n">
         <v>386.0425690809814</v>
@@ -3515,7 +3515,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G38" t="n">
-        <v>364.6210704138063</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H38" t="n">
         <v>259.2150933680659</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295138</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U38" t="n">
         <v>220.0967589369122</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,19 +3667,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4685551105453</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H40" t="n">
-        <v>106.6837044342875</v>
+        <v>106.683704434288</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448717</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705897</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S40" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
         <v>205.2313529237194</v>
@@ -3718,7 +3718,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W40" t="n">
         <v>236.4292784165725</v>
@@ -3727,7 +3727,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C41" t="n">
-        <v>386.9571213141933</v>
+        <v>386.9571213141932</v>
       </c>
       <c r="D41" t="n">
-        <v>383.3850932342101</v>
+        <v>383.38509323421</v>
       </c>
       <c r="E41" t="n">
         <v>386.0425690809814</v>
@@ -3752,7 +3752,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G41" t="n">
-        <v>364.6210704138063</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H41" t="n">
         <v>259.2150933680659</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295138</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
-        <v>183.0417138731738</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U41" t="n">
         <v>220.0967589369122</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
@@ -3904,19 +3904,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F43" t="n">
-        <v>134.4685551105456</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G43" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H43" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448717</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705897</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S43" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T43" t="n">
         <v>205.2313529237194</v>
@@ -3955,7 +3955,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W43" t="n">
         <v>236.4292784165725</v>
@@ -3964,7 +3964,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C44" t="n">
-        <v>386.9571213141933</v>
+        <v>386.9571213141932</v>
       </c>
       <c r="D44" t="n">
-        <v>383.3850932342101</v>
+        <v>383.38509323421</v>
       </c>
       <c r="E44" t="n">
         <v>386.0425690809814</v>
@@ -3989,7 +3989,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G44" t="n">
-        <v>364.6210704138063</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H44" t="n">
         <v>259.2150933680659</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295138</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T44" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U44" t="n">
         <v>220.0967589369122</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
@@ -4141,19 +4141,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F46" t="n">
-        <v>134.4685551105456</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G46" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H46" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448717</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705897</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S46" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T46" t="n">
         <v>205.2313529237194</v>
@@ -4192,7 +4192,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V46" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W46" t="n">
         <v>236.4292784165725</v>
@@ -4201,7 +4201,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.780066834214</v>
+        <v>254.9737313054448</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.919740887919</v>
+        <v>103.8240946459311</v>
       </c>
       <c r="D2" t="n">
-        <v>783.6271200729188</v>
+        <v>84.57187787133547</v>
       </c>
       <c r="E2" t="n">
-        <v>466.6757461000012</v>
+        <v>62.63534205959708</v>
       </c>
       <c r="F2" t="n">
-        <v>41.55156428940136</v>
+        <v>41.55156428940138</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="H2" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I2" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J2" t="n">
-        <v>403.8563647361495</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K2" t="n">
-        <v>467.9940600750793</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="L2" t="n">
-        <v>978.4987708258482</v>
+        <v>551.7576166700231</v>
       </c>
       <c r="M2" t="n">
-        <v>1489.003481576617</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="N2" t="n">
-        <v>1489.003481576617</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="O2" t="n">
-        <v>1489.003481576617</v>
+        <v>1572.767038171561</v>
       </c>
       <c r="P2" t="n">
-        <v>1489.003481576617</v>
+        <v>1945.088961080801</v>
       </c>
       <c r="Q2" t="n">
-        <v>1945.0889610808</v>
+        <v>1945.088961080801</v>
       </c>
       <c r="R2" t="n">
-        <v>2062.645295962703</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>2062.645295962703</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T2" t="n">
-        <v>2062.645295962703</v>
+        <v>1841.719725007337</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.645295962703</v>
+        <v>1841.719725007337</v>
       </c>
       <c r="V2" t="n">
-        <v>2062.645295962703</v>
+        <v>1484.230310133586</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.645295962703</v>
+        <v>1087.838960433933</v>
       </c>
       <c r="X2" t="n">
-        <v>2054.965701170854</v>
+        <v>676.1189616016804</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.628431125745</v>
+        <v>270.7816915565708</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>608.3763969507092</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>490.870493468214</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
         <v>387.0305349834991</v>
@@ -4398,43 +4398,43 @@
         <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>94.62899915694447</v>
+        <v>94.62899915694449</v>
       </c>
       <c r="H3" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I3" t="n">
-        <v>48.6995488811659</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J3" t="n">
-        <v>48.6995488811659</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K3" t="n">
-        <v>48.6995488811659</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="L3" t="n">
-        <v>48.6995488811659</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="M3" t="n">
-        <v>48.6995488811659</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="N3" t="n">
-        <v>282.7663280507434</v>
+        <v>364.7856381354464</v>
       </c>
       <c r="O3" t="n">
-        <v>793.2710388015123</v>
+        <v>875.2903488862155</v>
       </c>
       <c r="P3" t="n">
-        <v>1303.775749552281</v>
+        <v>1385.795059636985</v>
       </c>
       <c r="Q3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
         <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>1768.616289061018</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
         <v>1626.736353358697</v>
@@ -4443,16 +4443,16 @@
         <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>1236.995018417599</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
         <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>876.9962950174796</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>737.303406370772</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1081.68164524587</v>
+        <v>1124.434028443491</v>
       </c>
       <c r="C4" t="n">
-        <v>909.7090821247864</v>
+        <v>952.4614653224069</v>
       </c>
       <c r="D4" t="n">
-        <v>746.3923092515571</v>
+        <v>789.1446924491776</v>
       </c>
       <c r="E4" t="n">
-        <v>580.1841034044106</v>
+        <v>622.9364866020311</v>
       </c>
       <c r="F4" t="n">
-        <v>408.322329178971</v>
+        <v>451.0747123765915</v>
       </c>
       <c r="G4" t="n">
-        <v>242.0653594732032</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="H4" t="n">
         <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J4" t="n">
-        <v>41.25290591925405</v>
+        <v>98.74423414341209</v>
       </c>
       <c r="K4" t="n">
-        <v>267.7805071250912</v>
+        <v>325.2718353492493</v>
       </c>
       <c r="L4" t="n">
-        <v>520.9405192739898</v>
+        <v>679.9611566436701</v>
       </c>
       <c r="M4" t="n">
-        <v>912.1263142442406</v>
+        <v>1071.146951613921</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.617825120276</v>
+        <v>1448.638462489957</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.04595380004</v>
+        <v>1804.06659116972</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.645165721941</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="Q4" t="n">
-        <v>2062.645295962703</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>2015.606682649876</v>
+        <v>2015.606682649877</v>
       </c>
       <c r="S4" t="n">
-        <v>2015.606682649876</v>
+        <v>2015.606682649877</v>
       </c>
       <c r="T4" t="n">
-        <v>2015.606682649876</v>
+        <v>2015.606682649877</v>
       </c>
       <c r="U4" t="n">
-        <v>2015.606682649876</v>
+        <v>2015.606682649877</v>
       </c>
       <c r="V4" t="n">
-        <v>2015.606682649876</v>
+        <v>2015.606682649877</v>
       </c>
       <c r="W4" t="n">
-        <v>1740.754278822389</v>
+        <v>1783.506662020009</v>
       </c>
       <c r="X4" t="n">
-        <v>1498.190382268194</v>
+        <v>1540.942765465815</v>
       </c>
       <c r="Y4" t="n">
-        <v>1271.847613957936</v>
+        <v>1314.599997155557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.316532141587</v>
+        <v>372.1612950161458</v>
       </c>
       <c r="C5" t="n">
-        <v>532.4158021548872</v>
+        <v>349.30096906985</v>
       </c>
       <c r="D5" t="n">
-        <v>109.1231813398874</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4595,22 +4595,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.141357229671</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.461762437823</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1379.164896433117</v>
+        <v>792.0096593076759</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>51.94486801115937</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>51.94486801115937</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>602.6104029955975</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1153.275937980036</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1703.941472964474</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4747,16 +4747,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2061.60438497749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2061.60438497749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>2061.60438497749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
         <v>2061.60438497749</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2078.856605666331</v>
+        <v>662.7127542112578</v>
       </c>
       <c r="C8" t="n">
-        <v>1651.955875679631</v>
+        <v>639.852428264962</v>
       </c>
       <c r="D8" t="n">
-        <v>1632.703658905035</v>
+        <v>216.5598074499622</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4829,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L9" t="n">
-        <v>1302.520320645319</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M9" t="n">
-        <v>1853.185855629757</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4984,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982686</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.856391133499</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
         <v>5115.135670291426</v>
@@ -5124,19 +5124,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>589.9333192441977</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C13" t="n">
-        <v>417.9607561231137</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D13" t="n">
-        <v>417.9607561231137</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E13" t="n">
-        <v>417.9607561231137</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F13" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5224,25 +5224,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1006.442056266521</v>
+        <v>789.929129290643</v>
       </c>
       <c r="Y13" t="n">
-        <v>780.0992879562633</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5276,34 +5276,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>195.4640539534665</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572743</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991801</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478502</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629314</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
@@ -5346,7 +5346,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5364,16 +5364,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N15" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
-        <v>991.7839914173002</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>373.4203922683196</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="C16" t="n">
-        <v>201.4478291472352</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5458,28 +5458,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>1850.259592528135</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.056897064296</v>
+        <v>1570.07514402844</v>
       </c>
       <c r="V16" t="n">
-        <v>1307.345429672325</v>
+        <v>1288.363676636468</v>
       </c>
       <c r="W16" t="n">
-        <v>1032.493025844838</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="X16" t="n">
-        <v>789.9291292906431</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.5863609803852</v>
+        <v>1013.511272808981</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5519,16 +5519,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787243</v>
@@ -5589,31 +5589,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.7214084612501</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C19" t="n">
-        <v>561.748845340166</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D19" t="n">
-        <v>561.748845340166</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E19" t="n">
-        <v>561.748845340166</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5698,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>1312.677474344534</v>
       </c>
       <c r="X19" t="n">
-        <v>960.0641767715081</v>
+        <v>1312.677474344534</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.7214084612501</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="20">
@@ -5762,16 +5762,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3959.47027938737</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4667.749558545297</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291426</v>
@@ -5826,31 +5826,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.9588572096895</v>
+        <v>769.8982080594426</v>
       </c>
       <c r="C22" t="n">
-        <v>683.9862940886056</v>
+        <v>597.9256449383587</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9862940886056</v>
+        <v>434.6088720651294</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5938,22 +5938,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.81982492729</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.967421099803</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.403524545608</v>
+        <v>960.0641767715083</v>
       </c>
       <c r="Y22" t="n">
-        <v>1046.124825921755</v>
+        <v>960.0641767715083</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6066,28 +6066,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.3940204581201</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>440.421457337036</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058286</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058286</v>
@@ -6166,31 +6166,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818956</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818956</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1267.165879923983</v>
       </c>
       <c r="X25" t="n">
-        <v>960.0641767715082</v>
+        <v>1267.165879923983</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.5599891701856</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,25 +6306,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>786.8947875232848</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>614.9222244022008</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
         <v>606.6296631841825</v>
@@ -6412,22 +6412,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>2048.080411290681</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>1767.895962790985</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.81982492729</v>
+        <v>1486.184495399014</v>
       </c>
       <c r="W28" t="n">
-        <v>1445.967421099803</v>
+        <v>1211.332091571527</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.403524545608</v>
+        <v>968.7681950173321</v>
       </c>
       <c r="Y28" t="n">
-        <v>977.0607562353505</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491846</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281006</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>371.5828766281006</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>371.5828766281006</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F31" t="n">
         <v>268.5596831115964</v>
@@ -6622,7 +6622,7 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6661,10 +6661,10 @@
         <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>960.0641767715082</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.7214084612503</v>
+        <v>733.7214084612501</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6774,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.1492231716423</v>
+        <v>824.4331854313298</v>
       </c>
       <c r="C34" t="n">
-        <v>336.3761425107828</v>
+        <v>662.6601047704702</v>
       </c>
       <c r="D34" t="n">
-        <v>336.3761425107828</v>
+        <v>509.5428143574653</v>
       </c>
       <c r="E34" t="n">
-        <v>263.9650051710436</v>
+        <v>353.5340909705433</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058286</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058286</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058286</v>
+        <v>191.8717992053282</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>169.7905543892526</v>
+        <v>169.7905543892525</v>
       </c>
       <c r="K34" t="n">
-        <v>406.3146683543559</v>
+        <v>406.3146683543557</v>
       </c>
       <c r="L34" t="n">
-        <v>771.0005024080427</v>
+        <v>771.0005024080424</v>
       </c>
       <c r="M34" t="n">
         <v>1172.182810137559</v>
@@ -6871,37 +6871,37 @@
         <v>1559.670833772861</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.095475211891</v>
+        <v>1925.09547521189</v>
       </c>
       <c r="P34" t="n">
-        <v>2225.691199893058</v>
+        <v>2225.691199893057</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893086</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="R34" t="n">
-        <v>2325.848712040483</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="S34" t="n">
-        <v>2165.913147019843</v>
+        <v>2202.752277872444</v>
       </c>
       <c r="T34" t="n">
-        <v>1932.773281705967</v>
+        <v>1969.612412558569</v>
       </c>
       <c r="U34" t="n">
-        <v>1662.788315666496</v>
+        <v>1724.419356558921</v>
       </c>
       <c r="V34" t="n">
-        <v>1391.27633073475</v>
+        <v>1452.907371627175</v>
       </c>
       <c r="W34" t="n">
-        <v>1126.623409367487</v>
+        <v>1452.907371627175</v>
       </c>
       <c r="X34" t="n">
-        <v>894.2589952735168</v>
+        <v>1220.542957533204</v>
       </c>
       <c r="Y34" t="n">
-        <v>678.1157094234834</v>
+        <v>1004.399671683171</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
         <v>1500.463591181375</v>
@@ -6923,64 +6923,64 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815417</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793288</v>
+        <v>93.92643974529562</v>
       </c>
       <c r="K35" t="n">
-        <v>101.1554685628679</v>
+        <v>809.4347477207947</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.780516182145</v>
+        <v>1739.059795340071</v>
       </c>
       <c r="M35" t="n">
-        <v>2035.066617601203</v>
+        <v>2743.34589675913</v>
       </c>
       <c r="N35" t="n">
-        <v>3011.317676087904</v>
+        <v>3719.59695524583</v>
       </c>
       <c r="O35" t="n">
-        <v>3856.462326238716</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="P35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793288</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L36" t="n">
-        <v>928.093640190839</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M36" t="n">
-        <v>1899.982462688443</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N36" t="n">
-        <v>1899.982462688443</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619898</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C37" t="n">
-        <v>786.29368622236</v>
+        <v>786.2936862223609</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305848</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648925</v>
+        <v>528.8386092648934</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209081</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965945</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862028</v>
+        <v>155.028449486203</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
         <v>1675.269665473201</v>
@@ -7111,19 +7111,19 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850696</v>
@@ -7135,10 +7135,10 @@
         <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292601</v>
+        <v>1076.362316292602</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815415</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524442</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793313</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.29483210793289</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>101.1554685628688</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.780516182145</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="M38" t="n">
-        <v>2035.066617601204</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="N38" t="n">
-        <v>3011.317676087905</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O38" t="n">
-        <v>3856.462326238717</v>
+        <v>3400.376846734532</v>
       </c>
       <c r="P38" t="n">
-        <v>4564.741605396644</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984472</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L39" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M39" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N39" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O39" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P39" t="n">
         <v>1353.81767574096</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223604</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305858</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648936</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209083</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965946</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
         <v>445.9494722557544</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960993</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
         <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.693048850695</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
         <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y40" t="n">
         <v>1076.362316292602</v>
@@ -7388,61 +7388,61 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>453.8982909248284</v>
+        <v>93.92643974529562</v>
       </c>
       <c r="K41" t="n">
-        <v>453.8982909248284</v>
+        <v>809.4347477207947</v>
       </c>
       <c r="L41" t="n">
-        <v>457.138701796059</v>
+        <v>1739.059795340071</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.424803215117</v>
+        <v>2743.34589675913</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701818</v>
+        <v>3719.59695524583</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.82051185263</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010558</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
         <v>3767.744219562895</v>
@@ -7451,7 +7451,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
         <v>2662.400453630242</v>
@@ -7482,10 +7482,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
         <v>370.4389643494358</v>
@@ -7494,16 +7494,16 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L42" t="n">
-        <v>960.9238909177753</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9238909177753</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="N42" t="n">
-        <v>960.9238909177753</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="O42" t="n">
-        <v>960.9238909177753</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="P42" t="n">
         <v>1353.81767574096</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223609</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305857</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648934</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.011785920908</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7588,28 +7588,28 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7625,7 +7625,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7640,10 +7640,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7658,31 +7658,31 @@
         <v>3103.317747938662</v>
       </c>
       <c r="N44" t="n">
-        <v>4079.568806425363</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="O44" t="n">
-        <v>4564.741605396644</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
         <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7719,28 +7719,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="O45" t="n">
-        <v>960.9238909177753</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P45" t="n">
         <v>1353.81767574096</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223609</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305857</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648934</v>
+        <v>528.8386092648931</v>
       </c>
       <c r="F46" t="n">
-        <v>393.011785920908</v>
+        <v>393.0117859209076</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.789767096594</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J46" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
         <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7840,13 +7840,13 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y46" t="n">
         <v>1076.362316292602</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>100.5501516422131</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>553.9733664232986</v>
+        <v>553.9733664232988</v>
       </c>
       <c r="M2" t="n">
-        <v>553.0925868901074</v>
+        <v>553.0925868901077</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>553.0522833467001</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>413.6581122236047</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8067,19 +8067,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>257.774118283822</v>
+        <v>348.1437678258571</v>
       </c>
       <c r="O3" t="n">
-        <v>538.8332137128979</v>
+        <v>538.8332137128981</v>
       </c>
       <c r="P3" t="n">
-        <v>537.4321651955044</v>
+        <v>537.4321651955046</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>277.6359438844877</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8152,10 +8152,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>283.5714115599904</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P5" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8292,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.498939971083</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8526,31 +8526,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931265</v>
+        <v>258.7570141181234</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,7 +8696,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>883.920771480625</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8708,7 +8708,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8772,22 +8772,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>129.8669649843427</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8939,16 +8939,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086323</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9024,7 +9024,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9167,10 +9167,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>56.96224792397994</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,7 +9179,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>697.1247562874521</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9237,19 +9237,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,13 +9258,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,19 +9410,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q20" t="n">
-        <v>488.0298379845266</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9474,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9659,7 +9659,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9896,7 +9896,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9963,19 +9963,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10209,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>32.0781490182762</v>
       </c>
       <c r="K35" t="n">
-        <v>45.72483963817805</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10601,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,19 +10659,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10680,13 +10680,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>45.72483963817895</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>451.1429186536653</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,7 +10841,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10917,7 +10917,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171364</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>32.0781490182762</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>41.5851847267952</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11075,13 +11075,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11154,7 +11154,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11306,19 +11306,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>527.4644936704487</v>
+        <v>218.7068825014454</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,10 +11388,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.44073542471733</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23464,7 +23464,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>45.91410070006295</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>27.77629167420056</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>121.0150742609552</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>23.10494125597468</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0.1574267246772649</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.37342898954071</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.15019490184608</v>
+        <v>143.2141170731773</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>153.4739695386589</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>8.616978063365805</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>68.15019490184604</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5861175088747</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>82.76161018671083</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>154.4969123730879</v>
+        <v>154.496912373088</v>
       </c>
       <c r="H34" t="n">
         <v>132.2608181713049</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150448</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407639</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>24.54399093942608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>262.0063921535899</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646600.3169276123</v>
+        <v>646600.3169276122</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646600.3169276122</v>
+        <v>646600.3169276123</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646600.3169276123</v>
+        <v>646600.3169276122</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653100.0858746427</v>
+        <v>653100.0858746426</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>364026.667506977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>364026.6675069772</v>
+      </c>
+      <c r="D2" t="n">
         <v>364026.6675069771</v>
       </c>
-      <c r="C2" t="n">
-        <v>364026.6675069771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>364026.6675069772</v>
-      </c>
       <c r="E2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609045</v>
       </c>
       <c r="F2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="J2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
-        <v>354879.9847092552</v>
+        <v>354879.9847092553</v>
       </c>
       <c r="M2" t="n">
-        <v>364026.6675069768</v>
+        <v>364026.6675069769</v>
       </c>
       <c r="N2" t="n">
-        <v>364026.6675069768</v>
+        <v>364026.6675069769</v>
       </c>
       <c r="O2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069765</v>
       </c>
       <c r="P2" t="n">
         <v>364026.6675069768</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172809.9698797272</v>
+        <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>13105.84347019895</v>
+        <v>13105.84347019888</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>134919.6914542163</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>10440.51617310201</v>
+        <v>10440.51617310196</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.990108497809</v>
+        <v>8077.990108497751</v>
       </c>
       <c r="M3" t="n">
         <v>166235.4618077716</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156803.046415754</v>
+        <v>159208.117992278</v>
       </c>
       <c r="C4" t="n">
-        <v>147925.0296144163</v>
+        <v>150452.0228057963</v>
       </c>
       <c r="D4" t="n">
-        <v>147925.0296144164</v>
+        <v>150452.0228057963</v>
       </c>
       <c r="E4" t="n">
-        <v>14775.17858629882</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="F4" t="n">
-        <v>14775.17858629881</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="G4" t="n">
-        <v>14775.17858629879</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="H4" t="n">
-        <v>14775.17858629882</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="I4" t="n">
-        <v>14775.17858629882</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="J4" t="n">
-        <v>14775.17858629882</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="K4" t="n">
-        <v>14775.17858629882</v>
+        <v>18970.7177243303</v>
       </c>
       <c r="L4" t="n">
-        <v>18097.75523203901</v>
+        <v>22293.29437007046</v>
       </c>
       <c r="M4" t="n">
-        <v>49651.35614060334</v>
+        <v>53529.14909243007</v>
       </c>
       <c r="N4" t="n">
-        <v>49651.35614060334</v>
+        <v>53529.14909243007</v>
       </c>
       <c r="O4" t="n">
-        <v>49651.35614060333</v>
+        <v>53529.14909243003</v>
       </c>
       <c r="P4" t="n">
-        <v>49651.35614060334</v>
+        <v>53529.14909243003</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64979.80849863308</v>
+        <v>64979.80849863309</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26479,7 +26479,7 @@
         <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842967</v>
@@ -26500,16 +26500,16 @@
         <v>78598.94787646881</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30566.15728713722</v>
+        <v>-32971.22886366135</v>
       </c>
       <c r="C6" t="n">
-        <v>135549.5433849337</v>
+        <v>133022.5501935538</v>
       </c>
       <c r="D6" t="n">
-        <v>148655.3868551327</v>
+        <v>146128.3936637527</v>
       </c>
       <c r="E6" t="n">
-        <v>43004.40462953562</v>
+        <v>38757.83482931972</v>
       </c>
       <c r="F6" t="n">
-        <v>258743.7611861761</v>
+        <v>254497.1913859603</v>
       </c>
       <c r="G6" t="n">
-        <v>258743.7611861761</v>
+        <v>254497.1913859604</v>
       </c>
       <c r="H6" t="n">
-        <v>258743.761186176</v>
+        <v>254497.1913859604</v>
       </c>
       <c r="I6" t="n">
-        <v>258743.761186176</v>
+        <v>254497.1913859603</v>
       </c>
       <c r="J6" t="n">
-        <v>123824.0697319597</v>
+        <v>119577.4999317439</v>
       </c>
       <c r="K6" t="n">
-        <v>248303.245013074</v>
+        <v>244056.6752128584</v>
       </c>
       <c r="L6" t="n">
-        <v>250105.2914922495</v>
+        <v>245873.1656230274</v>
       </c>
       <c r="M6" t="n">
-        <v>75756.64909377642</v>
+        <v>71878.85614194974</v>
       </c>
       <c r="N6" t="n">
-        <v>241992.110901548</v>
+        <v>238114.3179497214</v>
       </c>
       <c r="O6" t="n">
-        <v>241992.1109015483</v>
+        <v>238114.3179497211</v>
       </c>
       <c r="P6" t="n">
-        <v>241992.110901548</v>
+        <v>238114.3179497214</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26799,7 +26799,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562226</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="M2" t="n">
-        <v>25.57711373701735</v>
+        <v>25.57711373701747</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="C4" t="n">
-        <v>40.56648912491846</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491846</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.9575882335665</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491846</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>272.9935823939144</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>107.9353102204325</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,19 +27430,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.32485936564433</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>42.32485936564333</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>194.7386628029774</v>
       </c>
       <c r="E5" t="n">
-        <v>378.9070755048271</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>53.32812537571701</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27831,7 +27831,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9424765091179</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>272.544815655853</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27916,10 +27916,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="C34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="E34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="F34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="G34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="H34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="J34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="K34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="L34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="M34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="N34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="O34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="S34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="T34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="U34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="V34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="W34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="X34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.09748763562229</v>
+        <v>10.09748763562219</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137264027</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263939</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>64.78555084740378</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="M2" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>376.0827504133734</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34787,19 +34787,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>236.4310900702803</v>
+        <v>326.8007396123155</v>
       </c>
       <c r="O3" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="P3" t="n">
-        <v>515.6613239906757</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>255.7171839887865</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34872,10 +34872,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>261.1906109020039</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P5" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35012,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.7519016821045</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35246,31 +35246,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597931</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,7 +35416,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>846.4895085811933</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35428,7 +35428,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>94.10236418953335</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35659,16 +35659,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.53098502454813</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,7 +35899,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>659.5493944772209</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q20" t="n">
-        <v>451.9051633799285</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36616,7 +36616,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689301</v>
+        <v>68.16953634689291</v>
       </c>
       <c r="K34" t="n">
-        <v>238.9132464293972</v>
+        <v>238.9132464293971</v>
       </c>
       <c r="L34" t="n">
-        <v>368.3695293471584</v>
+        <v>368.3695293471583</v>
       </c>
       <c r="M34" t="n">
-        <v>405.2346542722393</v>
+        <v>405.2346542722392</v>
       </c>
       <c r="N34" t="n">
-        <v>391.4020440760625</v>
+        <v>391.4020440760624</v>
       </c>
       <c r="O34" t="n">
-        <v>369.1157994333628</v>
+        <v>369.1157994333627</v>
       </c>
       <c r="P34" t="n">
-        <v>303.632045132492</v>
+        <v>303.6320451324919</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747758</v>
+        <v>138.3804474747757</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.658189532689673</v>
       </c>
       <c r="K35" t="n">
-        <v>9.960238843368707</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37321,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391038</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>9.960238843369611</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>413.7116557542335</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,7 +37561,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123077</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>2.658189532689673</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>3.273142294172274</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37795,13 +37795,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38026,19 +38026,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>490.0735343144246</v>
+        <v>181.3159231454213</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
